--- a/curvas_de_propocao/Polvo_ind_prop.xlsx
+++ b/curvas_de_propocao/Polvo_ind_prop.xlsx
@@ -634,7 +634,7 @@
         <v>2008</v>
       </c>
       <c r="B25" t="n">
-        <v>0.003033763007666157</v>
+        <v>0.00298808614999398</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>2009</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00749474894147574</v>
+        <v>0.007222847228670329</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>2010</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08672922989693886</v>
+        <v>0.08077076567579571</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>2011</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3814879011382813</v>
+        <v>0.3447620607312318</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>2012</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2328052965150025</v>
+        <v>0.2041946563551726</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>2013</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2134373621088775</v>
+        <v>0.1811774146797484</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>2014</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1599378007535779</v>
+        <v>0.1317373809314472</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>2015</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01329140593209766</v>
+        <v>0.0106462290686868</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>2016</v>
       </c>
       <c r="B33" t="n">
-        <v>0.000551200642288884</v>
+        <v>0.0004300552786549828</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>2017</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0295617853814777</v>
+        <v>0.0224358319632433</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>2018</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04991016273220534</v>
+        <v>0.03683879018084183</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>2019</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02140235672389271</v>
+        <v>0.01538266953638057</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>2020</v>
       </c>
       <c r="B37" t="n">
-        <v>0.005383340962276256</v>
+        <v>0.003773775111384472</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>2021</v>
       </c>
       <c r="B38" t="n">
-        <v>0.022732917989737</v>
+        <v>0.0155658988449948</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>2022</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01096536841611474</v>
+        <v>0.007344026926877617</v>
       </c>
     </row>
   </sheetData>

--- a/curvas_de_propocao/Polvo_ind_prop.xlsx
+++ b/curvas_de_propocao/Polvo_ind_prop.xlsx
@@ -634,7 +634,7 @@
         <v>2008</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00298808614999398</v>
+        <v>0.002731327183698018</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>2009</v>
       </c>
       <c r="B26" t="n">
-        <v>0.007222847228670329</v>
+        <v>0.006600979758162537</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>2010</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08077076567579571</v>
+        <v>0.07491520289350163</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>2011</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3447620607312318</v>
+        <v>0.3237242329275697</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>2012</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2041946563551726</v>
+        <v>0.1944518251042367</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>2013</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1811774146797484</v>
+        <v>0.1756918002537251</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>2014</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1317373809314472</v>
+        <v>0.129858241243207</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>2015</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0106462290686868</v>
+        <v>0.01065292960867491</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>2016</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0004300552786549828</v>
+        <v>0.0004366910350482304</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>2017</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0224358319632433</v>
+        <v>0.0231682182671429</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>2018</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03683879018084183</v>
+        <v>0.03871391439984848</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>2019</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01538266953638057</v>
+        <v>0.01642409117276044</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>2020</v>
       </c>
       <c r="B37" t="n">
-        <v>0.003773775111384472</v>
+        <v>0.004089274083179504</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>2021</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0155658988449948</v>
+        <v>0.01710310147710525</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>2022</v>
       </c>
       <c r="B39" t="n">
-        <v>0.007344026926877617</v>
+        <v>0.00817484140770668</v>
       </c>
     </row>
   </sheetData>
